--- a/tes123/Example 3 - 123/AutoPolicyCalculation.xlsx
+++ b/tes123/Example 3 - 123/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
   <si>
     <t>Driver</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Unique Driver Id1</t>
+  </si>
+  <si>
+    <t>Unique Driver Id=</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>253</v>
